--- a/biology/Botanique/Bonica_82/Bonica_82.xlsx
+++ b/biology/Botanique/Bonica_82/Bonica_82.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ‘Meidomonac’ est un cultivar de rosier floribunda, obtenu par la maison Meilland en 1982 et distribué sous la marque Bonica.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier triploïde est issu de croisements entre (Rosa sempervirens x ‘Mademoiselle Marthe Carron’[1]) x ‘Picasso’[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier triploïde est issu de croisements entre (Rosa sempervirens x ‘Mademoiselle Marthe Carron’) x ‘Picasso’.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses fleurs d'un rose délicat sont de taille moyenne, en coupe pleine, et se présentent en bouquets de cinq à dix fleurs.
 Ce rosier peut mesurer 60 cm de hauteur et il est apprécié des jardiniers, car il est peu épineux, robuste, et supporte l'ombre. De plus ‘Bonica 82’ est agréablement parfumé. Il supporte le froid et résiste aux maladies.
@@ -575,7 +591,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1982: Rosier ADR
 1987: All-America Rose Selections
